--- a/docs/Formats.xlsx
+++ b/docs/Formats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interpublic-my.sharepoint.com/personal/ishank_aggarwal_interactiveavenues_com/Documents/Documents/Amazon/1. Report Automation/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.gurung1\Downloads\Ishank_Amazon_Automation\flask_trials\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{DE174901-DF77-4DA8-98B1-B7559C623503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC8C84C-1CB0-4705-B612-6EC69D536346}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Beauty" sheetId="1" r:id="rId1"/>
@@ -1487,59 +1487,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A87D61-9DF9-4A12-B690-8C861BD071FC}">
   <dimension ref="A1:CE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CE19" sqref="CE19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" customWidth="1"/>
-    <col min="26" max="26" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.36328125" customWidth="1"/>
+    <col min="26" max="26" width="9.90625" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" customWidth="1"/>
+    <col min="28" max="28" width="14.81640625" customWidth="1"/>
+    <col min="29" max="29" width="10.6328125" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="35" max="35" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5546875" customWidth="1"/>
-    <col min="42" max="42" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.5546875" customWidth="1"/>
-    <col min="51" max="51" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.88671875" customWidth="1"/>
-    <col min="53" max="53" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.6640625" customWidth="1"/>
+    <col min="35" max="35" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.54296875" customWidth="1"/>
+    <col min="42" max="42" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.54296875" customWidth="1"/>
+    <col min="51" max="51" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.90625" customWidth="1"/>
+    <col min="53" max="53" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.6328125" customWidth="1"/>
     <col min="55" max="55" width="20" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="42.33203125" customWidth="1"/>
+    <col min="57" max="57" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="42.36328125" customWidth="1"/>
     <col min="62" max="62" width="20" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.33203125" customWidth="1"/>
-    <col min="81" max="81" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.36328125" customWidth="1"/>
+    <col min="81" max="81" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>83</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.35">
       <c r="O16" t="s">
         <v>14</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.35">
       <c r="X17" t="s">
         <v>14</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>54</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>81</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>82</v>
       </c>
@@ -4760,12 +4760,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
         <v>145</v>
       </c>
@@ -4773,12 +4773,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A28" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
         <v>157</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A30" s="45" t="s">
         <v>182</v>
       </c>
@@ -4805,14 +4805,14 @@
       <selection activeCell="O23" sqref="O23:U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="10.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4853,12 +4853,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -4884,12 +4884,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E10" s="21" t="s">
         <v>9</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>6</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
@@ -5067,32 +5067,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="S23" s="49"/>
       <c r="U23" s="49"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -5120,77 +5120,77 @@
       <selection activeCell="J31" sqref="J31:J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34" t="s">
         <v>99</v>
       </c>
@@ -5210,87 +5210,87 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="34" t="s">
         <v>113</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="34" t="s">
         <v>114</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="34" t="s">
         <v>35</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="34" t="s">
         <v>115</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="36" t="s">
         <v>39</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="34" t="s">
         <v>76</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="34" t="s">
         <v>116</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="34" t="s">
         <v>117</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="34" t="s">
         <v>118</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="34" t="s">
         <v>119</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="34" t="s">
         <v>59</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="34" t="s">
         <v>120</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="34" t="s">
         <v>121</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="34" t="s">
         <v>122</v>
       </c>
@@ -5402,27 +5402,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J45" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J46" s="37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J47" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J48" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49" s="37" t="s">
         <v>14</v>
       </c>

--- a/docs/Formats.xlsx
+++ b/docs/Formats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.gurung1\Downloads\Ishank_Amazon_Automation\flask_trials\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interpublic-my.sharepoint.com/personal/ishank_aggarwal_interactiveavenues_com/Documents/Documents/Amazon/1. Report Automation/App/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114877BA-9867-4570-8DD2-AEADA8B4F5C7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
+    <workbookView xWindow="-28800" yWindow="30" windowWidth="14880" windowHeight="8520" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Beauty" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="266">
   <si>
     <t>DailyHunt</t>
   </si>
@@ -809,6 +809,33 @@
   </si>
   <si>
     <t>Avg Seconds</t>
+  </si>
+  <si>
+    <t>Jio Saavn</t>
+  </si>
+  <si>
+    <t>Digital Turbine</t>
+  </si>
+  <si>
+    <t>Sizmek Impressions</t>
+  </si>
+  <si>
+    <t>Sizmek Clicks</t>
+  </si>
+  <si>
+    <t>Sizmek CTR</t>
+  </si>
+  <si>
+    <t>DT CTR</t>
+  </si>
+  <si>
+    <t>Way2news</t>
+  </si>
+  <si>
+    <t>Geo-Targeting</t>
+  </si>
+  <si>
+    <t>NoBrokerHood</t>
   </si>
 </sst>
 </file>
@@ -1485,102 +1512,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A87D61-9DF9-4A12-B690-8C861BD071FC}">
-  <dimension ref="A1:CE30"/>
+  <dimension ref="A1:CK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CO8" sqref="CO8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="21" max="21" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.36328125" customWidth="1"/>
-    <col min="26" max="26" width="9.90625" customWidth="1"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="14.81640625" customWidth="1"/>
-    <col min="29" max="29" width="10.6328125" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" customWidth="1"/>
-    <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="35" max="35" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.54296875" customWidth="1"/>
-    <col min="42" max="42" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.54296875" customWidth="1"/>
-    <col min="51" max="51" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.90625" customWidth="1"/>
-    <col min="53" max="53" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.6328125" customWidth="1"/>
-    <col min="55" max="55" width="20" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="42.36328125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="42.36328125" customWidth="1"/>
-    <col min="62" max="62" width="20" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.36328125" customWidth="1"/>
-    <col min="81" max="81" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="29" width="14.77734375" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" customWidth="1"/>
+    <col min="31" max="31" width="13.109375" customWidth="1"/>
+    <col min="32" max="32" width="11" customWidth="1"/>
+    <col min="36" max="36" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5546875" customWidth="1"/>
+    <col min="43" max="43" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5546875" customWidth="1"/>
+    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.88671875" customWidth="1"/>
+    <col min="54" max="54" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.6640625" customWidth="1"/>
+    <col min="56" max="56" width="20" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20" customWidth="1"/>
+    <col min="59" max="59" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="42.33203125" customWidth="1"/>
+    <col min="64" max="64" width="20" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.33203125" customWidth="1"/>
+    <col min="83" max="83" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>162</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>161</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>149</v>
       </c>
       <c r="AA1" t="s">
         <v>149</v>
       </c>
       <c r="AB1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" t="s">
         <v>158</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>148</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>147</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>146</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1599,239 +1627,257 @@
       <c r="F2" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AI2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="39" t="s">
+      <c r="AK2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AL2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="AL2" s="39" t="s">
+      <c r="AM2" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AN2" s="39" t="s">
+      <c r="AO2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AP2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AR2" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AV2" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AY2" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="AY2" s="47" t="s">
+      <c r="AZ2" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BB2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BC2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BD2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BE2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BG2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BH2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="BG2" s="46" t="s">
+      <c r="BI2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="BH2" s="46" t="s">
+      <c r="BJ2" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="BI2" s="46" t="s">
+      <c r="BK2" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BO2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BR2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="BQ2" s="46" t="s">
+      <c r="BS2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BT2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BU2" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BV2" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BY2" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BZ2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="BY2" s="7" t="s">
+      <c r="CA2" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="BZ2" s="7" t="s">
+      <c r="CB2" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CC2" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CD2" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CE2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CF2" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="CE2" s="30" t="s">
+      <c r="CG2" s="30" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CH2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="CK2" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1851,20 +1897,20 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
       <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
@@ -1872,26 +1918,26 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
       <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
       <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
         <v>24</v>
       </c>
-      <c r="T3" t="s">
-        <v>2</v>
-      </c>
       <c r="U3" t="s">
         <v>2</v>
       </c>
@@ -1899,20 +1945,20 @@
         <v>2</v>
       </c>
       <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
         <v>19</v>
       </c>
-      <c r="X3" t="s">
-        <v>2</v>
-      </c>
       <c r="Y3" t="s">
         <v>2</v>
       </c>
       <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" t="s">
-        <v>2</v>
-      </c>
       <c r="AB3" t="s">
         <v>2</v>
       </c>
@@ -1926,16 +1972,16 @@
         <v>2</v>
       </c>
       <c r="AF3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" t="s">
         <v>78</v>
       </c>
-      <c r="AH3" t="s">
-        <v>4</v>
-      </c>
       <c r="AI3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="s">
         <v>2</v>
@@ -1947,11 +1993,11 @@
         <v>2</v>
       </c>
       <c r="AM3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" t="s">
         <v>36</v>
       </c>
-      <c r="AN3" t="s">
-        <v>2</v>
-      </c>
       <c r="AO3" t="s">
         <v>2</v>
       </c>
@@ -1962,11 +2008,11 @@
         <v>2</v>
       </c>
       <c r="AR3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS3" t="s">
         <v>151</v>
       </c>
-      <c r="AS3" t="s">
-        <v>2</v>
-      </c>
       <c r="AT3" t="s">
         <v>2</v>
       </c>
@@ -1980,14 +2026,14 @@
         <v>2</v>
       </c>
       <c r="AX3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY3" t="s">
         <v>153</v>
       </c>
-      <c r="AY3" s="48" t="s">
+      <c r="AZ3" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>2</v>
-      </c>
       <c r="BA3" t="s">
         <v>2</v>
       </c>
@@ -1995,29 +2041,29 @@
         <v>2</v>
       </c>
       <c r="BC3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD3" t="s">
         <v>36</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF3" t="s">
         <v>151</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>151</v>
       </c>
-      <c r="BF3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI3" t="s">
         <v>166</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BJ3" t="s">
         <v>166</v>
       </c>
-      <c r="BI3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>4</v>
-      </c>
       <c r="BK3" t="s">
         <v>4</v>
       </c>
@@ -2025,26 +2071,26 @@
         <v>4</v>
       </c>
       <c r="BM3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BN3" t="s">
         <v>4</v>
       </c>
       <c r="BO3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BQ3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS3" t="s">
         <v>31</v>
       </c>
-      <c r="BR3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>2</v>
-      </c>
       <c r="BT3" t="s">
         <v>2</v>
       </c>
@@ -2067,22 +2113,40 @@
         <v>2</v>
       </c>
       <c r="CA3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC3" t="s">
         <v>24</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CD3" t="s">
         <v>36</v>
       </c>
-      <c r="CC3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>2</v>
-      </c>
       <c r="CE3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2102,19 +2166,19 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -2123,25 +2187,25 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
         <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
       <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
         <v>3</v>
       </c>
-      <c r="S4" t="s">
-        <v>4</v>
-      </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="s">
         <v>3</v>
@@ -2150,22 +2214,22 @@
         <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="s">
         <v>3</v>
       </c>
       <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" t="s">
-        <v>4</v>
-      </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="s">
         <v>3</v>
@@ -2177,20 +2241,20 @@
         <v>3</v>
       </c>
       <c r="AF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>47</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>3</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>4</v>
-      </c>
       <c r="AK4" t="s">
         <v>4</v>
       </c>
@@ -2213,10 +2277,10 @@
         <v>4</v>
       </c>
       <c r="AR4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS4" t="s">
         <v>152</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>3</v>
       </c>
       <c r="AT4" t="s">
         <v>3</v>
@@ -2231,13 +2295,13 @@
         <v>3</v>
       </c>
       <c r="AX4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY4" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ4" t="s">
         <v>3</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ4" s="48" t="s">
+        <v>4</v>
       </c>
       <c r="BA4" t="s">
         <v>3</v>
@@ -2246,64 +2310,64 @@
         <v>3</v>
       </c>
       <c r="BC4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF4" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>152</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>3</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>167</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BJ4" t="s">
         <v>167</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BK4" t="s">
         <v>237</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>37</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BM4" t="s">
         <v>37</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BN4" t="s">
         <v>19</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BO4" t="s">
         <v>3</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BP4" t="s">
         <v>37</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
         <v>37</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>204</v>
       </c>
       <c r="BR4" t="s">
         <v>3</v>
       </c>
       <c r="BS4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU4" t="s">
         <v>215</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BV4" t="s">
         <v>31</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>3</v>
       </c>
       <c r="BW4" t="s">
         <v>3</v>
@@ -2318,22 +2382,40 @@
         <v>3</v>
       </c>
       <c r="CA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC4" t="s">
         <v>26</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CD4" t="s">
         <v>25</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CE4" t="s">
         <v>3</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CF4" t="s">
         <v>3</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CG4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CH4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2352,21 +2434,18 @@
       <c r="F5" t="s">
         <v>190</v>
       </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
       <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
       <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
@@ -2374,26 +2453,26 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
-        <v>4</v>
-      </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="S5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
         <v>26</v>
       </c>
-      <c r="T5" t="s">
-        <v>4</v>
-      </c>
       <c r="U5" t="s">
         <v>4</v>
       </c>
@@ -2401,23 +2480,23 @@
         <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="s">
         <v>4</v>
       </c>
       <c r="Z5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" t="s">
-        <v>4</v>
-      </c>
       <c r="AC5" t="s">
         <v>4</v>
       </c>
@@ -2428,19 +2507,19 @@
         <v>4</v>
       </c>
       <c r="AF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="s">
         <v>47</v>
       </c>
-      <c r="AG5" t="s">
-        <v>9</v>
-      </c>
       <c r="AH5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="s">
         <v>26</v>
       </c>
-      <c r="AI5" t="s">
-        <v>4</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="s">
         <v>6</v>
@@ -2449,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="AM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="s">
         <v>26</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>6</v>
       </c>
       <c r="AO5" t="s">
         <v>6</v>
@@ -2464,11 +2543,11 @@
         <v>6</v>
       </c>
       <c r="AR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" t="s">
         <v>153</v>
       </c>
-      <c r="AS5" t="s">
-        <v>4</v>
-      </c>
       <c r="AT5" t="s">
         <v>4</v>
       </c>
@@ -2482,14 +2561,14 @@
         <v>4</v>
       </c>
       <c r="AX5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" t="s">
         <v>18</v>
       </c>
-      <c r="AY5" s="48" t="s">
+      <c r="AZ5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>4</v>
-      </c>
       <c r="BA5" t="s">
         <v>4</v>
       </c>
@@ -2497,65 +2576,65 @@
         <v>4</v>
       </c>
       <c r="BC5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD5" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF5" t="s">
         <v>153</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BG5" t="s">
         <v>153</v>
       </c>
-      <c r="BF5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="s">
         <v>168</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BJ5" t="s">
         <v>168</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BK5" t="s">
         <v>238</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>26</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>26</v>
       </c>
       <c r="BL5" t="s">
         <v>26</v>
       </c>
       <c r="BM5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="BN5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP5" t="s">
         <v>197</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BQ5" t="s">
         <v>197</v>
       </c>
-      <c r="BP5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS5" t="s">
         <v>205</v>
       </c>
-      <c r="BR5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>4</v>
-      </c>
       <c r="BT5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV5" t="s">
         <v>134</v>
       </c>
-      <c r="BU5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>4</v>
-      </c>
       <c r="BW5" t="s">
         <v>4</v>
       </c>
@@ -2566,25 +2645,43 @@
         <v>4</v>
       </c>
       <c r="BZ5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB5" t="s">
         <v>244</v>
       </c>
-      <c r="CA5" t="s">
+      <c r="CC5" t="s">
         <v>27</v>
       </c>
-      <c r="CB5" t="s">
+      <c r="CD5" t="s">
         <v>26</v>
       </c>
-      <c r="CC5" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD5" t="s">
+      <c r="CE5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF5" t="s">
         <v>250</v>
       </c>
-      <c r="CE5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CG5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2604,19 +2701,19 @@
         <v>191</v>
       </c>
       <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
       </c>
       <c r="L6" t="s">
         <v>5</v>
@@ -2625,25 +2722,25 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>5</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
       </c>
       <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
         <v>5</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>27</v>
-      </c>
-      <c r="T6" t="s">
-        <v>5</v>
       </c>
       <c r="U6" t="s">
         <v>5</v>
@@ -2652,22 +2749,22 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" t="s">
         <v>40</v>
-      </c>
-      <c r="X6" t="s">
-        <v>5</v>
       </c>
       <c r="Y6" t="s">
         <v>5</v>
       </c>
       <c r="Z6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="s">
         <v>63</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>24</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>5</v>
       </c>
       <c r="AC6" t="s">
         <v>5</v>
@@ -2679,16 +2776,16 @@
         <v>5</v>
       </c>
       <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="s">
         <v>37</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>5</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>132</v>
       </c>
       <c r="AK6" t="s">
         <v>132</v>
@@ -2697,10 +2794,10 @@
         <v>132</v>
       </c>
       <c r="AM6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN6" t="s">
         <v>27</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>132</v>
       </c>
       <c r="AO6" t="s">
         <v>132</v>
@@ -2712,10 +2809,10 @@
         <v>132</v>
       </c>
       <c r="AR6" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="AS6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="s">
         <v>5</v>
@@ -2730,13 +2827,13 @@
         <v>5</v>
       </c>
       <c r="AX6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="s">
         <v>24</v>
       </c>
-      <c r="AY6" s="48" t="s">
+      <c r="AZ6" s="48" t="s">
         <v>70</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>5</v>
       </c>
       <c r="BA6" t="s">
         <v>5</v>
@@ -2745,64 +2842,64 @@
         <v>5</v>
       </c>
       <c r="BC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD6" t="s">
         <v>26</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF6" t="s">
         <v>70</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
         <v>70</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" t="s">
         <v>5</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BI6" t="s">
         <v>169</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BJ6" t="s">
         <v>169</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BK6" t="s">
         <v>239</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>27</v>
       </c>
       <c r="BL6" t="s">
         <v>27</v>
       </c>
       <c r="BM6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO6" t="s">
         <v>5</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BP6" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BQ6" t="s">
         <v>26</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>8</v>
       </c>
       <c r="BR6" t="s">
         <v>5</v>
       </c>
       <c r="BS6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT6" t="s">
         <v>5</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>135</v>
       </c>
       <c r="BU6" t="s">
         <v>5</v>
       </c>
       <c r="BV6" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="BW6" t="s">
         <v>5</v>
@@ -2817,22 +2914,40 @@
         <v>5</v>
       </c>
       <c r="CA6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC6" t="s">
         <v>28</v>
       </c>
-      <c r="CB6" t="s">
+      <c r="CD6" t="s">
         <v>27</v>
       </c>
-      <c r="CC6" t="s">
+      <c r="CE6" t="s">
         <v>5</v>
       </c>
-      <c r="CD6" t="s">
+      <c r="CF6" t="s">
         <v>5</v>
       </c>
-      <c r="CE6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CG6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2852,19 +2967,19 @@
         <v>192</v>
       </c>
       <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -2873,22 +2988,22 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>6</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>6</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>6</v>
       </c>
       <c r="U7" t="s">
         <v>6</v>
@@ -2896,20 +3011,20 @@
       <c r="V7" t="s">
         <v>6</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>6</v>
       </c>
       <c r="Y7" t="s">
         <v>6</v>
       </c>
       <c r="Z7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>37</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>6</v>
       </c>
       <c r="AC7" t="s">
         <v>6</v>
@@ -2921,16 +3036,16 @@
         <v>6</v>
       </c>
       <c r="AF7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" t="s">
         <v>26</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>28</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>6</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>133</v>
       </c>
       <c r="AK7" t="s">
         <v>133</v>
@@ -2939,10 +3054,10 @@
         <v>133</v>
       </c>
       <c r="AM7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN7" t="s">
         <v>142</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>133</v>
       </c>
       <c r="AO7" t="s">
         <v>133</v>
@@ -2954,10 +3069,10 @@
         <v>133</v>
       </c>
       <c r="AR7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS7" t="s">
         <v>24</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>6</v>
       </c>
       <c r="AT7" t="s">
         <v>6</v>
@@ -2969,16 +3084,16 @@
         <v>6</v>
       </c>
       <c r="AW7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="s">
         <v>154</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>37</v>
       </c>
-      <c r="AY7" s="48" t="s">
+      <c r="AZ7" s="48" t="s">
         <v>37</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>6</v>
       </c>
       <c r="BA7" t="s">
         <v>6</v>
@@ -2987,70 +3102,70 @@
         <v>6</v>
       </c>
       <c r="BC7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD7" t="s">
         <v>27</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF7" t="s">
         <v>163</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BG7" t="s">
         <v>163</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BH7" t="s">
         <v>6</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BI7" t="s">
         <v>170</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BJ7" t="s">
         <v>170</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BK7" t="s">
         <v>240</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>28</v>
       </c>
       <c r="BL7" t="s">
         <v>28</v>
       </c>
       <c r="BM7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO7" t="s">
         <v>7</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BP7" t="s">
         <v>27</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BQ7" t="s">
         <v>27</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>8</v>
       </c>
       <c r="BR7" t="s">
         <v>6</v>
       </c>
       <c r="BS7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU7" t="s">
         <v>7</v>
       </c>
-      <c r="BT7" t="s">
+      <c r="BV7" t="s">
         <v>137</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>7</v>
       </c>
       <c r="BW7" t="s">
         <v>6</v>
       </c>
       <c r="BX7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BY7" t="s">
         <v>6</v>
@@ -3058,20 +3173,38 @@
       <c r="BZ7" t="s">
         <v>6</v>
       </c>
+      <c r="CA7" t="s">
+        <v>6</v>
+      </c>
       <c r="CB7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD7" t="s">
         <v>28</v>
       </c>
-      <c r="CC7" t="s">
+      <c r="CE7" t="s">
         <v>6</v>
       </c>
-      <c r="CD7" t="s">
+      <c r="CF7" t="s">
         <v>7</v>
       </c>
-      <c r="CE7" t="s">
+      <c r="CG7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>259</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3091,16 +3224,16 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
@@ -3109,19 +3242,19 @@
         <v>7</v>
       </c>
       <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>7</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>7</v>
       </c>
-      <c r="S8" t="s">
-        <v>14</v>
-      </c>
       <c r="T8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U8" t="s">
         <v>7</v>
@@ -3129,20 +3262,20 @@
       <c r="V8" t="s">
         <v>7</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>7</v>
       </c>
       <c r="Y8" t="s">
         <v>7</v>
       </c>
       <c r="Z8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="s">
         <v>64</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>71</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>7</v>
       </c>
       <c r="AC8" t="s">
         <v>7</v>
@@ -3154,13 +3287,13 @@
         <v>7</v>
       </c>
       <c r="AF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="s">
         <v>27</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>7</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>31</v>
       </c>
       <c r="AK8" t="s">
         <v>31</v>
@@ -3169,10 +3302,10 @@
         <v>31</v>
       </c>
       <c r="AM8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN8" t="s">
         <v>28</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>31</v>
       </c>
       <c r="AO8" t="s">
         <v>31</v>
@@ -3184,10 +3317,10 @@
         <v>31</v>
       </c>
       <c r="AR8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS8" t="s">
         <v>37</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>7</v>
       </c>
       <c r="AT8" t="s">
         <v>7</v>
@@ -3199,16 +3332,16 @@
         <v>7</v>
       </c>
       <c r="AW8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="s">
         <v>6</v>
       </c>
-      <c r="AX8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY8" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>7</v>
+      <c r="AY8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ8" s="48" t="s">
+        <v>8</v>
       </c>
       <c r="BA8" t="s">
         <v>7</v>
@@ -3217,61 +3350,61 @@
         <v>7</v>
       </c>
       <c r="BC8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD8" t="s">
         <v>28</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF8" t="s">
         <v>24</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>24</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BH8" t="s">
         <v>7</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BI8" t="s">
         <v>171</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BJ8" t="s">
         <v>171</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BK8" t="s">
         <v>33</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BO8" t="s">
         <v>6</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BP8" t="s">
         <v>28</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BQ8" t="s">
         <v>28</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>206</v>
       </c>
       <c r="BR8" t="s">
         <v>7</v>
       </c>
       <c r="BS8" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU8" t="s">
         <v>6</v>
       </c>
-      <c r="BT8" t="s">
+      <c r="BV8" t="s">
         <v>226</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>6</v>
       </c>
       <c r="BW8" t="s">
         <v>7</v>
       </c>
       <c r="BX8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BY8" t="s">
         <v>7</v>
@@ -3279,17 +3412,35 @@
       <c r="BZ8" t="s">
         <v>7</v>
       </c>
-      <c r="CC8" t="s">
+      <c r="CA8" t="s">
         <v>7</v>
       </c>
-      <c r="CD8" t="s">
+      <c r="CB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF8" t="s">
         <v>245</v>
       </c>
-      <c r="CE8" t="s">
+      <c r="CG8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>260</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>264</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3308,13 +3459,10 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
         <v>8</v>
       </c>
       <c r="L9" t="s">
@@ -3323,16 +3471,16 @@
       <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="O9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
         <v>8</v>
       </c>
       <c r="U9" t="s">
@@ -3341,18 +3489,18 @@
       <c r="V9" t="s">
         <v>8</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s">
         <v>8</v>
       </c>
       <c r="Y9" t="s">
         <v>8</v>
       </c>
       <c r="Z9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" t="s">
-        <v>8</v>
-      </c>
       <c r="AB9" t="s">
         <v>8</v>
       </c>
@@ -3365,11 +3513,11 @@
       <c r="AE9" t="s">
         <v>8</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AF9" t="s">
         <v>8</v>
       </c>
       <c r="AJ9" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="s">
         <v>134</v>
@@ -3378,10 +3526,10 @@
         <v>134</v>
       </c>
       <c r="AM9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN9" t="s">
         <v>143</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>134</v>
       </c>
       <c r="AO9" t="s">
         <v>134</v>
@@ -3393,7 +3541,7 @@
         <v>134</v>
       </c>
       <c r="AR9" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="AS9" t="s">
         <v>8</v>
@@ -3408,16 +3556,16 @@
         <v>8</v>
       </c>
       <c r="AW9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="s">
         <v>7</v>
       </c>
-      <c r="AX9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY9" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>8</v>
+      <c r="AY9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ9" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="BA9" t="s">
         <v>8</v>
@@ -3425,48 +3573,48 @@
       <c r="BB9" t="s">
         <v>8</v>
       </c>
-      <c r="BD9" t="s">
-        <v>4</v>
+      <c r="BC9" t="s">
+        <v>8</v>
       </c>
       <c r="BE9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BF9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI9" t="s">
         <v>172</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BJ9" t="s">
         <v>172</v>
       </c>
-      <c r="BI9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ9" t="s">
+      <c r="BK9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS9" t="s">
         <v>40</v>
       </c>
-      <c r="BR9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>8</v>
-      </c>
       <c r="BT9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV9" t="s">
         <v>136</v>
       </c>
-      <c r="BU9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>8</v>
-      </c>
       <c r="BW9" t="s">
         <v>8</v>
       </c>
@@ -3477,19 +3625,37 @@
         <v>8</v>
       </c>
       <c r="BZ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB9" t="s">
         <v>245</v>
       </c>
-      <c r="CC9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>8</v>
-      </c>
       <c r="CE9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG9" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CH9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>261</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3508,13 +3674,10 @@
       <c r="F10" t="s">
         <v>193</v>
       </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
         <v>9</v>
       </c>
       <c r="L10" t="s">
@@ -3523,13 +3686,13 @@
       <c r="M10" t="s">
         <v>9</v>
       </c>
-      <c r="O10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" t="s">
         <v>9</v>
       </c>
       <c r="U10" t="s">
@@ -3538,35 +3701,35 @@
       <c r="V10" t="s">
         <v>9</v>
       </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s">
         <v>9</v>
       </c>
       <c r="Y10" t="s">
         <v>9</v>
       </c>
       <c r="Z10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC10" t="s">
-        <v>9</v>
-      </c>
       <c r="AD10" t="s">
         <v>9</v>
       </c>
       <c r="AE10" t="s">
         <v>9</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AF10" t="s">
         <v>9</v>
       </c>
       <c r="AJ10" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="s">
         <v>135</v>
@@ -3574,7 +3737,7 @@
       <c r="AL10" t="s">
         <v>135</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AM10" t="s">
         <v>135</v>
       </c>
       <c r="AO10" t="s">
@@ -3587,7 +3750,7 @@
         <v>135</v>
       </c>
       <c r="AR10" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="AS10" t="s">
         <v>9</v>
@@ -3602,62 +3765,59 @@
         <v>9</v>
       </c>
       <c r="AW10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY10" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ10" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>9</v>
-      </c>
       <c r="BA10" t="s">
         <v>9</v>
       </c>
       <c r="BB10" t="s">
         <v>9</v>
       </c>
-      <c r="BD10" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>8</v>
+      <c r="BC10" t="s">
+        <v>9</v>
       </c>
       <c r="BF10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI10" t="s">
         <v>173</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BJ10" t="s">
         <v>173</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BK10" t="s">
         <v>241</v>
       </c>
-      <c r="BM10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ10" t="s">
+      <c r="BO10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS10" t="s">
         <v>40</v>
       </c>
-      <c r="BR10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU10" t="s">
         <v>216</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BV10" t="s">
         <v>227</v>
       </c>
-      <c r="BU10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>9</v>
-      </c>
       <c r="BW10" t="s">
         <v>9</v>
       </c>
@@ -3668,19 +3828,34 @@
         <v>9</v>
       </c>
       <c r="BZ10" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>8</v>
       </c>
       <c r="CE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG10" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CI10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3696,13 +3871,10 @@
       <c r="F11" t="s">
         <v>194</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>10</v>
       </c>
       <c r="L11" t="s">
@@ -3711,50 +3883,50 @@
       <c r="M11" t="s">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
         <v>40</v>
       </c>
-      <c r="R11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="S11" t="s">
         <v>10</v>
       </c>
       <c r="U11" t="s">
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" t="s">
         <v>40</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>10</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>72</v>
       </c>
-      <c r="AB11" t="s">
-        <v>9</v>
-      </c>
       <c r="AC11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="s">
         <v>10</v>
       </c>
       <c r="AE11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="s">
         <v>74</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>10</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>136</v>
       </c>
       <c r="AK11" t="s">
         <v>136</v>
@@ -3762,7 +3934,7 @@
       <c r="AL11" t="s">
         <v>136</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AM11" t="s">
         <v>136</v>
       </c>
       <c r="AO11" t="s">
@@ -3775,73 +3947,70 @@
         <v>136</v>
       </c>
       <c r="AR11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS11" t="s">
         <v>72</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>10</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>40</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>10</v>
       </c>
       <c r="AV11" t="s">
         <v>10</v>
       </c>
       <c r="AW11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA11" t="s">
         <v>188</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>10</v>
       </c>
       <c r="BB11" t="s">
         <v>10</v>
       </c>
-      <c r="BD11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>9</v>
+      <c r="BC11" t="s">
+        <v>10</v>
       </c>
       <c r="BF11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH11" t="s">
         <v>10</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BI11" t="s">
         <v>174</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BJ11" t="s">
         <v>174</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BK11" t="s">
         <v>224</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BO11" t="s">
         <v>10</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BR11" t="s">
         <v>202</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BS11" t="s">
         <v>206</v>
       </c>
-      <c r="BR11" t="s">
+      <c r="BT11" t="s">
         <v>10</v>
       </c>
-      <c r="BS11" t="s">
+      <c r="BU11" t="s">
         <v>217</v>
       </c>
-      <c r="BT11" t="s">
+      <c r="BV11" t="s">
         <v>228</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>10</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>10</v>
       </c>
       <c r="BW11" t="s">
         <v>10</v>
@@ -3853,19 +4022,31 @@
         <v>10</v>
       </c>
       <c r="BZ11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB11" t="s">
         <v>40</v>
       </c>
-      <c r="CC11" t="s">
+      <c r="CE11" t="s">
         <v>188</v>
       </c>
-      <c r="CD11" t="s">
+      <c r="CF11" t="s">
         <v>10</v>
       </c>
-      <c r="CE11" t="s">
+      <c r="CG11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CI11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3875,13 +4056,10 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
       <c r="L12" t="s">
@@ -3890,44 +4068,44 @@
       <c r="M12" t="s">
         <v>11</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
         <v>10</v>
       </c>
-      <c r="R12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="S12" t="s">
         <v>11</v>
       </c>
       <c r="U12" t="s">
         <v>11</v>
       </c>
-      <c r="X12" t="s">
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="s">
         <v>60</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>11</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>73</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>10</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>11</v>
       </c>
       <c r="AD12" t="s">
         <v>11</v>
       </c>
       <c r="AE12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="s">
         <v>10</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>11</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>137</v>
       </c>
       <c r="AK12" t="s">
         <v>137</v>
@@ -3935,7 +4113,7 @@
       <c r="AL12" t="s">
         <v>137</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AM12" t="s">
         <v>137</v>
       </c>
       <c r="AO12" t="s">
@@ -3947,71 +4125,68 @@
       <c r="AQ12" t="s">
         <v>137</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AR12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT12" t="s">
         <v>11</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>10</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>11</v>
       </c>
       <c r="AV12" t="s">
         <v>11</v>
       </c>
       <c r="AW12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA12" t="s">
         <v>10</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>11</v>
       </c>
       <c r="BB12" t="s">
         <v>11</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BC12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF12" t="s">
         <v>72</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BG12" t="s">
         <v>72</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BH12" t="s">
         <v>11</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BI12" t="s">
         <v>175</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BJ12" t="s">
         <v>175</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BK12" t="s">
         <v>242</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BO12" t="s">
         <v>11</v>
       </c>
-      <c r="BP12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>9</v>
-      </c>
       <c r="BR12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT12" t="s">
         <v>11</v>
       </c>
-      <c r="BS12" t="s">
+      <c r="BU12" t="s">
         <v>218</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BV12" t="s">
         <v>154</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>11</v>
       </c>
       <c r="BW12" t="s">
         <v>11</v>
@@ -4023,19 +4198,31 @@
         <v>11</v>
       </c>
       <c r="BZ12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC12" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE12" t="s">
         <v>10</v>
       </c>
-      <c r="CD12" t="s">
+      <c r="CF12" t="s">
         <v>11</v>
       </c>
-      <c r="CE12" t="s">
+      <c r="CG12" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CI12" t="s">
+        <v>262</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4045,13 +4232,10 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="s">
@@ -4060,49 +4244,49 @@
       <c r="M13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="S13" t="s">
         <v>12</v>
       </c>
       <c r="U13" t="s">
         <v>12</v>
       </c>
-      <c r="X13" t="s">
+      <c r="V13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="s">
         <v>10</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>11</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>12</v>
       </c>
       <c r="AD13" t="s">
         <v>12</v>
       </c>
       <c r="AE13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="s">
         <v>11</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>12</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>8</v>
-      </c>
       <c r="AK13" t="s">
         <v>8</v>
       </c>
       <c r="AL13" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AM13" t="s">
         <v>8</v>
       </c>
       <c r="AO13" t="s">
@@ -4114,59 +4298,56 @@
       <c r="AQ13" t="s">
         <v>8</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AR13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT13" t="s">
         <v>12</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>11</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>12</v>
       </c>
       <c r="AV13" t="s">
         <v>12</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="AW13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA13" t="s">
         <v>11</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>12</v>
       </c>
       <c r="BB13" t="s">
         <v>12</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BC13" t="s">
         <v>12</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BH13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI13" t="s">
         <v>176</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BJ13" t="s">
         <v>176</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BK13" t="s">
         <v>217</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BO13" t="s">
         <v>12</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR13" t="s">
+      <c r="BS13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT13" t="s">
         <v>12</v>
       </c>
-      <c r="BS13" t="s">
+      <c r="BU13" t="s">
         <v>219</v>
       </c>
-      <c r="BT13" t="s">
+      <c r="BV13" t="s">
         <v>229</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>12</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>12</v>
       </c>
       <c r="BW13" t="s">
         <v>12</v>
@@ -4178,16 +4359,28 @@
         <v>12</v>
       </c>
       <c r="BZ13" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB13" t="s">
         <v>207</v>
       </c>
-      <c r="CC13" t="s">
+      <c r="CE13" t="s">
         <v>11</v>
       </c>
-      <c r="CD13" t="s">
+      <c r="CF13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CI13" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4197,13 +4390,10 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>13</v>
       </c>
       <c r="L14" t="s">
@@ -4212,41 +4402,41 @@
       <c r="M14" t="s">
         <v>13</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
         <v>12</v>
       </c>
-      <c r="R14" t="s">
-        <v>13</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="S14" t="s">
         <v>13</v>
       </c>
       <c r="U14" t="s">
         <v>13</v>
       </c>
-      <c r="X14" t="s">
+      <c r="V14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="s">
         <v>11</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>13</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>12</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>13</v>
       </c>
       <c r="AD14" t="s">
         <v>13</v>
       </c>
       <c r="AE14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="s">
         <v>12</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>13</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>138</v>
       </c>
       <c r="AK14" t="s">
         <v>138</v>
@@ -4254,7 +4444,7 @@
       <c r="AL14" t="s">
         <v>138</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AM14" t="s">
         <v>138</v>
       </c>
       <c r="AO14" t="s">
@@ -4266,56 +4456,53 @@
       <c r="AQ14" t="s">
         <v>138</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AR14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT14" t="s">
         <v>13</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>12</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>13</v>
       </c>
       <c r="AV14" t="s">
         <v>13</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="AW14" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA14" t="s">
         <v>12</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>13</v>
       </c>
       <c r="BB14" t="s">
         <v>13</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BC14" t="s">
         <v>13</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BH14" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI14" t="s">
         <v>177</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BJ14" t="s">
         <v>177</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BO14" t="s">
         <v>13</v>
       </c>
-      <c r="BQ14" t="s">
+      <c r="BS14" t="s">
         <v>206</v>
       </c>
-      <c r="BR14" t="s">
+      <c r="BT14" t="s">
         <v>13</v>
       </c>
-      <c r="BS14" t="s">
+      <c r="BU14" t="s">
         <v>220</v>
       </c>
-      <c r="BT14" t="s">
+      <c r="BV14" t="s">
         <v>230</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>13</v>
       </c>
       <c r="BW14" t="s">
         <v>13</v>
@@ -4327,16 +4514,28 @@
         <v>13</v>
       </c>
       <c r="BZ14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB14" t="s">
         <v>208</v>
       </c>
-      <c r="CC14" t="s">
+      <c r="CE14" t="s">
         <v>12</v>
       </c>
-      <c r="CD14" t="s">
+      <c r="CF14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="CI14" t="s">
+        <v>210</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4346,13 +4545,10 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="L15" t="s">
@@ -4361,41 +4557,41 @@
       <c r="M15" t="s">
         <v>14</v>
       </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" t="s">
         <v>13</v>
       </c>
-      <c r="R15" t="s">
-        <v>14</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="S15" t="s">
         <v>14</v>
       </c>
       <c r="U15" t="s">
         <v>14</v>
       </c>
-      <c r="X15" t="s">
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="Z15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="s">
         <v>13</v>
       </c>
-      <c r="AC15" t="s">
-        <v>14</v>
-      </c>
       <c r="AD15" t="s">
         <v>14</v>
       </c>
       <c r="AE15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="s">
         <v>13</v>
       </c>
-      <c r="AI15" t="s">
-        <v>14</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="s">
         <v>139</v>
@@ -4403,7 +4599,7 @@
       <c r="AL15" t="s">
         <v>139</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AM15" t="s">
         <v>139</v>
       </c>
       <c r="AO15" t="s">
@@ -4415,85 +4611,88 @@
       <c r="AQ15" t="s">
         <v>139</v>
       </c>
-      <c r="AS15" t="s">
-        <v>14</v>
+      <c r="AR15" t="s">
+        <v>139</v>
       </c>
       <c r="AT15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU15" t="s">
         <v>13</v>
       </c>
-      <c r="AU15" t="s">
-        <v>14</v>
-      </c>
       <c r="AV15" t="s">
         <v>14</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="AW15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA15" t="s">
         <v>13</v>
       </c>
-      <c r="BA15" t="s">
-        <v>14</v>
-      </c>
       <c r="BB15" t="s">
         <v>14</v>
       </c>
-      <c r="BF15" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG15" t="s">
+      <c r="BC15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI15" t="s">
         <v>178</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BJ15" t="s">
         <v>178</v>
       </c>
-      <c r="BQ15" t="s">
+      <c r="BS15" t="s">
         <v>207</v>
       </c>
-      <c r="BR15" t="s">
-        <v>14</v>
-      </c>
-      <c r="BS15" t="s">
+      <c r="BT15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU15" t="s">
         <v>221</v>
       </c>
-      <c r="BT15" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>14</v>
+      <c r="BV15" t="s">
+        <v>9</v>
       </c>
       <c r="BW15" t="s">
         <v>14</v>
       </c>
-      <c r="BX15" t="s">
-        <v>14</v>
-      </c>
       <c r="BY15" t="s">
         <v>14</v>
       </c>
       <c r="BZ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB15" t="s">
         <v>246</v>
       </c>
-      <c r="CC15" t="s">
+      <c r="CE15" t="s">
         <v>13</v>
       </c>
-      <c r="CD15" t="s">
+      <c r="CF15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.35">
-      <c r="O16" t="s">
-        <v>14</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="CJ15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="s">
         <v>13</v>
       </c>
-      <c r="AB16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>140</v>
+      <c r="AC16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>14</v>
       </c>
       <c r="AK16" t="s">
         <v>140</v>
@@ -4501,7 +4700,7 @@
       <c r="AL16" t="s">
         <v>140</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AM16" t="s">
         <v>140</v>
       </c>
       <c r="AO16" t="s">
@@ -4513,43 +4712,43 @@
       <c r="AQ16" t="s">
         <v>140</v>
       </c>
-      <c r="AT16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG16" t="s">
+      <c r="AR16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI16" t="s">
         <v>179</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BJ16" t="s">
         <v>179</v>
       </c>
-      <c r="BQ16" t="s">
+      <c r="BS16" t="s">
         <v>207</v>
       </c>
-      <c r="BS16" t="s">
+      <c r="BU16" t="s">
         <v>222</v>
       </c>
-      <c r="BT16" t="s">
+      <c r="BV16" t="s">
         <v>40</v>
       </c>
-      <c r="BZ16" t="s">
+      <c r="CB16" t="s">
         <v>33</v>
       </c>
-      <c r="CC16" t="s">
-        <v>14</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="X17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>11</v>
+      <c r="CE16" t="s">
+        <v>14</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="Y17" t="s">
+        <v>14</v>
       </c>
       <c r="AK17" t="s">
         <v>11</v>
@@ -4557,7 +4756,7 @@
       <c r="AL17" t="s">
         <v>11</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AM17" t="s">
         <v>11</v>
       </c>
       <c r="AO17" t="s">
@@ -4569,39 +4768,39 @@
       <c r="AQ17" t="s">
         <v>11</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="AR17" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI17" t="s">
         <v>180</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BJ17" t="s">
         <v>180</v>
       </c>
-      <c r="BQ17" t="s">
+      <c r="BS17" t="s">
         <v>208</v>
       </c>
-      <c r="BS17" t="s">
+      <c r="BU17" t="s">
         <v>223</v>
       </c>
-      <c r="BT17" t="s">
+      <c r="BV17" t="s">
         <v>33</v>
       </c>
-      <c r="BZ17" t="s">
+      <c r="CB17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>141</v>
-      </c>
       <c r="AK18" t="s">
         <v>141</v>
       </c>
       <c r="AL18" t="s">
         <v>141</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AM18" t="s">
         <v>141</v>
       </c>
       <c r="AO18" t="s">
@@ -4613,36 +4812,36 @@
       <c r="AQ18" t="s">
         <v>141</v>
       </c>
-      <c r="BG18" t="s">
+      <c r="AR18" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI18" t="s">
         <v>181</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BJ18" t="s">
         <v>181</v>
       </c>
-      <c r="BQ18" t="s">
+      <c r="BS18" t="s">
         <v>208</v>
       </c>
-      <c r="BS18" t="s">
+      <c r="BU18" t="s">
         <v>224</v>
       </c>
-      <c r="BT18" t="s">
+      <c r="BV18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>13</v>
-      </c>
       <c r="AK19" t="s">
         <v>13</v>
       </c>
       <c r="AL19" t="s">
         <v>13</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AM19" t="s">
         <v>13</v>
       </c>
       <c r="AO19" t="s">
@@ -4654,27 +4853,27 @@
       <c r="AQ19" t="s">
         <v>13</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="AR19" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS19" t="s">
         <v>206</v>
       </c>
-      <c r="BT19" t="s">
+      <c r="BV19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>33</v>
-      </c>
       <c r="AK20" t="s">
         <v>33</v>
       </c>
       <c r="AL20" t="s">
         <v>33</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AM20" t="s">
         <v>33</v>
       </c>
       <c r="AO20" t="s">
@@ -4686,27 +4885,27 @@
       <c r="AQ20" t="s">
         <v>33</v>
       </c>
-      <c r="BQ20" t="s">
+      <c r="AR20" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS20" t="s">
         <v>209</v>
       </c>
-      <c r="BT20" t="s">
+      <c r="BV20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>14</v>
-      </c>
       <c r="AK21" t="s">
         <v>14</v>
       </c>
       <c r="AL21" t="s">
         <v>14</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AM21" t="s">
         <v>14</v>
       </c>
       <c r="AO21" t="s">
@@ -4718,54 +4917,57 @@
       <c r="AQ21" t="s">
         <v>14</v>
       </c>
-      <c r="BQ21" t="s">
+      <c r="AR21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BQ22" t="s">
+      <c r="BS22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BQ23" t="s">
+      <c r="BS23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="BQ24" t="s">
+      <c r="BS24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="BQ25" t="s">
+      <c r="BS25" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>145</v>
       </c>
@@ -4773,12 +4975,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>157</v>
       </c>
@@ -4786,7 +4988,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>182</v>
       </c>
@@ -4805,14 +5007,14 @@
       <selection activeCell="O23" sqref="O23:U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -4853,12 +5055,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -4884,12 +5086,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
@@ -4897,7 +5099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
@@ -4905,7 +5107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -4958,7 +5160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="21" t="s">
         <v>9</v>
       </c>
@@ -4966,7 +5168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
@@ -4974,7 +5176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +5187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
@@ -5035,7 +5237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>6</v>
       </c>
@@ -5059,7 +5261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
@@ -5067,32 +5269,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
@@ -5101,7 +5303,7 @@
       <c r="S23" s="49"/>
       <c r="U23" s="49"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -5120,77 +5322,77 @@
       <selection activeCell="J31" sqref="J31:J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>99</v>
       </c>
@@ -5210,87 +5412,87 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>113</v>
       </c>
@@ -5298,7 +5500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
         <v>114</v>
       </c>
@@ -5306,7 +5508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>35</v>
       </c>
@@ -5314,7 +5516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>115</v>
       </c>
@@ -5322,7 +5524,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
         <v>39</v>
       </c>
@@ -5330,7 +5532,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>76</v>
       </c>
@@ -5338,7 +5540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>116</v>
       </c>
@@ -5346,7 +5548,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>117</v>
       </c>
@@ -5354,7 +5556,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>118</v>
       </c>
@@ -5362,7 +5564,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>119</v>
       </c>
@@ -5370,7 +5572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>59</v>
       </c>
@@ -5378,7 +5580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>120</v>
       </c>
@@ -5386,7 +5588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>121</v>
       </c>
@@ -5394,7 +5596,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>122</v>
       </c>
@@ -5402,27 +5604,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J45" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J46" s="37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J47" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J48" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J49" s="37" t="s">
         <v>14</v>
       </c>

--- a/docs/Formats.xlsx
+++ b/docs/Formats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interpublic-my.sharepoint.com/personal/ishank_aggarwal_interactiveavenues_com/Documents/Documents/Amazon/1. Report Automation/App/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114877BA-9867-4570-8DD2-AEADA8B4F5C7}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF0A910A-6BE2-4608-BCA3-1AAACEE62081}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="30" windowWidth="14880" windowHeight="8520" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Beauty" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="270">
   <si>
     <t>DailyHunt</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>NoBrokerHood</t>
+  </si>
+  <si>
+    <t>Viads</t>
+  </si>
+  <si>
+    <t>ApnaComplex</t>
+  </si>
+  <si>
+    <t>SportsKeeda</t>
+  </si>
+  <si>
+    <t>PublicApp</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A87D61-9DF9-4A12-B690-8C861BD071FC}">
-  <dimension ref="A1:CK30"/>
+  <dimension ref="A1:CN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CO8" sqref="CO8"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BT2" sqref="BT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,7 +1579,7 @@
     <col min="84" max="84" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>83</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +1786,7 @@
       <c r="BC2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="BE2" s="6" t="s">
@@ -1823,7 +1835,7 @@
         <v>203</v>
       </c>
       <c r="BT2" s="7" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="BU2" s="7" t="s">
         <v>214</v>
@@ -1876,8 +1888,17 @@
       <c r="CK2" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL2" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="CM2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN2" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2145,8 +2166,17 @@
       <c r="CK3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2444,17 @@
       <c r="CK4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2680,8 +2719,17 @@
       <c r="CK5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2946,8 +2994,17 @@
       <c r="CK6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3203,8 +3260,17 @@
       <c r="CK7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3439,8 +3505,17 @@
       <c r="CK8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL8" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3654,8 +3729,14 @@
       <c r="CK9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3854,8 +3935,14 @@
       <c r="CK10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4045,8 +4132,14 @@
       <c r="CJ11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4221,8 +4314,14 @@
       <c r="CJ12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL12" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4379,8 +4478,14 @@
       <c r="CJ13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL13" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4534,8 +4639,14 @@
       <c r="CJ14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CL14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4680,8 +4791,11 @@
       <c r="CJ15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="CM15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
       <c r="P16" t="s">
         <v>14</v>
       </c>

--- a/docs/Formats.xlsx
+++ b/docs/Formats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interpublic-my.sharepoint.com/personal/ishank_aggarwal_interactiveavenues_com/Documents/Documents/Amazon/1. Report Automation/App/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF0A910A-6BE2-4608-BCA3-1AAACEE62081}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D961DD-41B4-4115-A6D2-5090F907E347}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="276">
   <si>
     <t>DailyHunt</t>
   </si>
@@ -848,6 +848,24 @@
   </si>
   <si>
     <t>PublicApp</t>
+  </si>
+  <si>
+    <t>MMT</t>
+  </si>
+  <si>
+    <t>Samsung TV</t>
+  </si>
+  <si>
+    <t>OTT Experiment</t>
+  </si>
+  <si>
+    <t>Creative Ad unit</t>
+  </si>
+  <si>
+    <t>Moj</t>
+  </si>
+  <si>
+    <t>Jio Cinema</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1146,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1207,6 +1225,9 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A87D61-9DF9-4A12-B690-8C861BD071FC}">
-  <dimension ref="A1:CN30"/>
+  <dimension ref="A1:CS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BT2" sqref="BT2"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CS3" sqref="CS3:CS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1569,7 @@
     <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.33203125" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" customWidth="1"/>
+    <col min="27" max="27" width="21" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
     <col min="29" max="29" width="14.77734375" customWidth="1"/>
     <col min="30" max="30" width="10.6640625" customWidth="1"/>
@@ -1579,7 +1600,7 @@
     <col min="84" max="84" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>83</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1783,7 @@
       <c r="AU2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" s="6" t="s">
         <v>129</v>
       </c>
       <c r="AW2" s="6" t="s">
@@ -1897,8 +1918,23 @@
       <c r="CN2" s="17" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="CP2" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="CR2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="CS2" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2175,8 +2211,23 @@
       <c r="CN3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2504,23 @@
       <c r="CN4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO4" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2728,8 +2794,23 @@
       <c r="CN5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3003,8 +3084,23 @@
       <c r="CN6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3269,8 +3365,23 @@
       <c r="CN7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3514,8 +3625,23 @@
       <c r="CN8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO8" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>273</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3735,8 +3861,20 @@
       <c r="CM9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CP9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3941,8 +4079,20 @@
       <c r="CM10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CP10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4138,8 +4288,20 @@
       <c r="CM11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CP11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4320,8 +4482,20 @@
       <c r="CM12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CP12" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4484,8 +4658,17 @@
       <c r="CM13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CP13" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4645,8 +4828,17 @@
       <c r="CM14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CP14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>12</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4794,8 +4986,17 @@
       <c r="CM15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CP15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
       <c r="P16" t="s">
         <v>14</v>
       </c>
@@ -4857,6 +5058,9 @@
         <v>14</v>
       </c>
       <c r="CF16" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ16" t="s">
         <v>14</v>
       </c>
     </row>

--- a/docs/Formats.xlsx
+++ b/docs/Formats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interpublic-my.sharepoint.com/personal/ishank_aggarwal_interactiveavenues_com/Documents/Documents/Amazon/1. Report Automation/App/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D961DD-41B4-4115-A6D2-5090F907E347}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{AC4A6378-67D2-4863-A478-442891091073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FEDF8A2-D178-442A-AAB6-0D39B054EB96}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E2EABC8-826B-4772-8AE8-49EDCC4016C3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="276">
   <si>
     <t>DailyHunt</t>
   </si>
@@ -1545,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A87D61-9DF9-4A12-B690-8C861BD071FC}">
-  <dimension ref="A1:CS30"/>
+  <dimension ref="A1:CT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CS3" sqref="CS3:CS16"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1577,30 +1577,30 @@
     <col min="32" max="32" width="11" customWidth="1"/>
     <col min="36" max="36" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.5546875" customWidth="1"/>
-    <col min="43" max="43" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5546875" customWidth="1"/>
-    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" customWidth="1"/>
-    <col min="54" max="54" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.6640625" customWidth="1"/>
-    <col min="56" max="56" width="20" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20" customWidth="1"/>
-    <col min="59" max="59" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="42.33203125" customWidth="1"/>
-    <col min="64" max="64" width="20" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.33203125" customWidth="1"/>
-    <col min="83" max="83" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.5546875" customWidth="1"/>
+    <col min="44" max="44" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" customWidth="1"/>
+    <col min="53" max="53" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.88671875" customWidth="1"/>
+    <col min="55" max="55" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.6640625" customWidth="1"/>
+    <col min="57" max="57" width="20" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20" customWidth="1"/>
+    <col min="60" max="60" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="42.33203125" customWidth="1"/>
+    <col min="65" max="65" width="20" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.33203125" customWidth="1"/>
+    <col min="84" max="84" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>83</v>
       </c>
@@ -1634,14 +1634,14 @@
       <c r="AN1" t="s">
         <v>147</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>146</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1762,179 +1762,182 @@
       <c r="AN2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AO2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AR2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AR2" s="39" t="s">
+      <c r="AS2" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="AZ2" s="47" t="s">
+      <c r="BA2" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BB2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BC2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BD2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BE2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BF2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BG2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BH2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BI2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="BI2" s="46" t="s">
+      <c r="BJ2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="BJ2" s="46" t="s">
+      <c r="BK2" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="BK2" s="46" t="s">
+      <c r="BL2" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c r="BP2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BS2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="BS2" s="46" t="s">
+      <c r="BT2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BU2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BV2" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BY2" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="BY2" s="7" t="s">
+      <c r="BZ2" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="BZ2" s="7" t="s">
+      <c r="CA2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="CA2" s="7" t="s">
+      <c r="CB2" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="CC2" s="17" t="s">
+      <c r="CD2" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="CD2" s="17" t="s">
+      <c r="CE2" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="CE2" s="7" t="s">
+      <c r="CF2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="CF2" s="7" t="s">
+      <c r="CG2" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="CG2" s="30" t="s">
+      <c r="CH2" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CI2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CJ2" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="CJ2" s="7" t="s">
+      <c r="CK2" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="CK2" s="7" t="s">
+      <c r="CL2" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="CL2" s="7" t="s">
+      <c r="CM2" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="CM2" s="7" t="s">
+      <c r="CN2" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CO2" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="CO2" s="7" t="s">
+      <c r="CP2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="CQ2" s="7" t="s">
+      <c r="CR2" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="CR2" s="7" t="s">
+      <c r="CS2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="CS2" s="7" t="s">
+      <c r="CT2" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>36</v>
       </c>
       <c r="AO3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP3" t="s">
         <v>2</v>
@@ -2068,11 +2071,11 @@
         <v>2</v>
       </c>
       <c r="AS3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT3" t="s">
         <v>151</v>
       </c>
-      <c r="AT3" t="s">
-        <v>2</v>
-      </c>
       <c r="AU3" t="s">
         <v>2</v>
       </c>
@@ -2086,14 +2089,14 @@
         <v>2</v>
       </c>
       <c r="AY3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>153</v>
       </c>
-      <c r="AZ3" s="48" t="s">
+      <c r="BA3" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="BA3" t="s">
-        <v>2</v>
-      </c>
       <c r="BB3" t="s">
         <v>2</v>
       </c>
@@ -2101,28 +2104,28 @@
         <v>2</v>
       </c>
       <c r="BD3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE3" t="s">
         <v>36</v>
       </c>
-      <c r="BE3" t="s">
-        <v>2</v>
-      </c>
       <c r="BF3" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="BG3" t="s">
         <v>151</v>
       </c>
       <c r="BH3" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="BI3" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="BJ3" t="s">
         <v>166</v>
       </c>
       <c r="BK3" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="BL3" t="s">
         <v>4</v>
@@ -2134,23 +2137,23 @@
         <v>4</v>
       </c>
       <c r="BO3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BQ3" t="s">
         <v>4</v>
       </c>
       <c r="BR3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BS3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT3" t="s">
         <v>31</v>
       </c>
-      <c r="BT3" t="s">
-        <v>2</v>
-      </c>
       <c r="BU3" t="s">
         <v>2</v>
       </c>
@@ -2176,22 +2179,22 @@
         <v>2</v>
       </c>
       <c r="CC3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD3" t="s">
         <v>24</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CE3" t="s">
         <v>36</v>
       </c>
-      <c r="CE3" t="s">
-        <v>2</v>
-      </c>
       <c r="CF3" t="s">
         <v>2</v>
       </c>
       <c r="CG3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CH3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CI3" t="s">
         <v>2</v>
@@ -2209,14 +2212,14 @@
         <v>2</v>
       </c>
       <c r="CN3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CO3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="CP3" t="s">
-        <v>2</v>
-      </c>
       <c r="CQ3" t="s">
         <v>2</v>
       </c>
@@ -2226,8 +2229,11 @@
       <c r="CS3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CT3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="s">
         <v>4</v>
@@ -2361,10 +2367,10 @@
         <v>4</v>
       </c>
       <c r="AS4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT4" t="s">
         <v>152</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>3</v>
       </c>
       <c r="AU4" t="s">
         <v>3</v>
@@ -2379,13 +2385,13 @@
         <v>3</v>
       </c>
       <c r="AY4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ4" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA4" t="s">
         <v>3</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="48" t="s">
+        <v>4</v>
       </c>
       <c r="BB4" t="s">
         <v>3</v>
@@ -2394,64 +2400,64 @@
         <v>3</v>
       </c>
       <c r="BD4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE4" t="s">
         <v>4</v>
       </c>
       <c r="BF4" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="BG4" t="s">
         <v>152</v>
       </c>
       <c r="BH4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI4" t="s">
         <v>3</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>167</v>
       </c>
       <c r="BJ4" t="s">
         <v>167</v>
       </c>
       <c r="BK4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL4" t="s">
         <v>237</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>37</v>
       </c>
       <c r="BM4" t="s">
         <v>37</v>
       </c>
       <c r="BN4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO4" t="s">
         <v>19</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>3</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>37</v>
       </c>
       <c r="BQ4" t="s">
         <v>37</v>
       </c>
       <c r="BR4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS4" t="s">
         <v>3</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BT4" t="s">
         <v>204</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BU4" t="s">
         <v>3</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BV4" t="s">
         <v>215</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BW4" t="s">
         <v>31</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>3</v>
       </c>
       <c r="BX4" t="s">
         <v>3</v>
@@ -2469,25 +2475,25 @@
         <v>3</v>
       </c>
       <c r="CC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD4" t="s">
         <v>26</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CE4" t="s">
         <v>25</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>3</v>
       </c>
       <c r="CF4" t="s">
         <v>3</v>
       </c>
       <c r="CG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH4" t="s">
         <v>18</v>
       </c>
-      <c r="CH4" t="s">
-        <v>4</v>
-      </c>
       <c r="CI4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ4" t="s">
         <v>3</v>
@@ -2502,25 +2508,28 @@
         <v>3</v>
       </c>
       <c r="CN4" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO4" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="CP4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="CQ4" t="s">
         <v>4</v>
       </c>
       <c r="CR4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS4" t="s">
         <v>3</v>
       </c>
-      <c r="CS4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CT4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2639,7 +2648,7 @@
         <v>26</v>
       </c>
       <c r="AO5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="s">
         <v>6</v>
@@ -2651,11 +2660,11 @@
         <v>6</v>
       </c>
       <c r="AS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT5" t="s">
         <v>153</v>
       </c>
-      <c r="AT5" t="s">
-        <v>4</v>
-      </c>
       <c r="AU5" t="s">
         <v>4</v>
       </c>
@@ -2669,14 +2678,14 @@
         <v>4</v>
       </c>
       <c r="AY5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>18</v>
       </c>
-      <c r="AZ5" s="48" t="s">
+      <c r="BA5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BA5" t="s">
-        <v>4</v>
-      </c>
       <c r="BB5" t="s">
         <v>4</v>
       </c>
@@ -2684,31 +2693,31 @@
         <v>4</v>
       </c>
       <c r="BD5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE5" t="s">
         <v>37</v>
       </c>
-      <c r="BE5" t="s">
-        <v>6</v>
-      </c>
       <c r="BF5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="BG5" t="s">
         <v>153</v>
       </c>
       <c r="BH5" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="BI5" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="BJ5" t="s">
         <v>168</v>
       </c>
       <c r="BK5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL5" t="s">
         <v>238</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>26</v>
       </c>
       <c r="BM5" t="s">
         <v>26</v>
@@ -2717,32 +2726,32 @@
         <v>26</v>
       </c>
       <c r="BO5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="BP5" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="BQ5" t="s">
         <v>197</v>
       </c>
       <c r="BR5" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="BS5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT5" t="s">
         <v>205</v>
       </c>
-      <c r="BT5" t="s">
-        <v>4</v>
-      </c>
       <c r="BU5" t="s">
         <v>4</v>
       </c>
       <c r="BV5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW5" t="s">
         <v>134</v>
       </c>
-      <c r="BW5" t="s">
-        <v>4</v>
-      </c>
       <c r="BX5" t="s">
         <v>4</v>
       </c>
@@ -2756,28 +2765,28 @@
         <v>4</v>
       </c>
       <c r="CB5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC5" t="s">
         <v>244</v>
       </c>
-      <c r="CC5" t="s">
+      <c r="CD5" t="s">
         <v>27</v>
       </c>
-      <c r="CD5" t="s">
+      <c r="CE5" t="s">
         <v>26</v>
       </c>
-      <c r="CE5" t="s">
-        <v>4</v>
-      </c>
       <c r="CF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG5" t="s">
         <v>250</v>
       </c>
-      <c r="CG5" t="s">
-        <v>8</v>
-      </c>
       <c r="CH5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CJ5" t="s">
         <v>4</v>
@@ -2792,25 +2801,28 @@
         <v>4</v>
       </c>
       <c r="CN5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO5" t="s">
         <v>36</v>
       </c>
-      <c r="CO5" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>3</v>
+      <c r="CP5" s="50" t="s">
+        <v>8</v>
       </c>
       <c r="CQ5" t="s">
         <v>3</v>
       </c>
       <c r="CR5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2929,7 +2941,7 @@
         <v>27</v>
       </c>
       <c r="AO6" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="s">
         <v>132</v>
@@ -2941,10 +2953,10 @@
         <v>132</v>
       </c>
       <c r="AS6" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="AT6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="s">
         <v>5</v>
@@ -2959,13 +2971,13 @@
         <v>5</v>
       </c>
       <c r="AY6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>24</v>
       </c>
-      <c r="AZ6" s="48" t="s">
+      <c r="BA6" s="48" t="s">
         <v>70</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>5</v>
       </c>
       <c r="BB6" t="s">
         <v>5</v>
@@ -2974,31 +2986,31 @@
         <v>5</v>
       </c>
       <c r="BD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE6" t="s">
         <v>26</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>132</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>70</v>
       </c>
       <c r="BG6" t="s">
         <v>70</v>
       </c>
       <c r="BH6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI6" t="s">
         <v>5</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>169</v>
       </c>
       <c r="BJ6" t="s">
         <v>169</v>
       </c>
       <c r="BK6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL6" t="s">
         <v>239</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>27</v>
       </c>
       <c r="BM6" t="s">
         <v>27</v>
@@ -3007,31 +3019,31 @@
         <v>27</v>
       </c>
       <c r="BO6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP6" t="s">
         <v>5</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>26</v>
       </c>
       <c r="BQ6" t="s">
         <v>26</v>
       </c>
       <c r="BR6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS6" t="s">
         <v>5</v>
       </c>
-      <c r="BS6" t="s">
-        <v>8</v>
-      </c>
       <c r="BT6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BU6" t="s">
         <v>5</v>
       </c>
       <c r="BV6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW6" t="s">
         <v>135</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>5</v>
       </c>
       <c r="BX6" t="s">
         <v>5</v>
@@ -3049,25 +3061,25 @@
         <v>5</v>
       </c>
       <c r="CC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD6" t="s">
         <v>28</v>
       </c>
-      <c r="CD6" t="s">
+      <c r="CE6" t="s">
         <v>27</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>5</v>
       </c>
       <c r="CF6" t="s">
         <v>5</v>
       </c>
       <c r="CG6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CH6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI6" t="s">
         <v>7</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>5</v>
       </c>
       <c r="CJ6" t="s">
         <v>5</v>
@@ -3082,13 +3094,13 @@
         <v>5</v>
       </c>
       <c r="CN6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO6" t="s">
         <v>26</v>
       </c>
-      <c r="CO6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>5</v>
+      <c r="CP6" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="CQ6" t="s">
         <v>5</v>
@@ -3097,10 +3109,13 @@
         <v>5</v>
       </c>
       <c r="CS6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3213,7 +3228,7 @@
         <v>142</v>
       </c>
       <c r="AO7" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AP7" t="s">
         <v>133</v>
@@ -3225,11 +3240,11 @@
         <v>133</v>
       </c>
       <c r="AS7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT7" t="s">
         <v>24</v>
       </c>
-      <c r="AT7" t="s">
-        <v>6</v>
-      </c>
       <c r="AU7" t="s">
         <v>6</v>
       </c>
@@ -3240,17 +3255,17 @@
         <v>6</v>
       </c>
       <c r="AX7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="s">
         <v>154</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>37</v>
       </c>
-      <c r="AZ7" s="48" t="s">
+      <c r="BA7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="BA7" t="s">
-        <v>6</v>
-      </c>
       <c r="BB7" t="s">
         <v>6</v>
       </c>
@@ -3258,31 +3273,31 @@
         <v>6</v>
       </c>
       <c r="BD7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE7" t="s">
         <v>27</v>
       </c>
-      <c r="BE7" t="s">
-        <v>8</v>
-      </c>
       <c r="BF7" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="BG7" t="s">
         <v>163</v>
       </c>
       <c r="BH7" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="BI7" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="BJ7" t="s">
         <v>170</v>
       </c>
       <c r="BK7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL7" t="s">
         <v>240</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>28</v>
       </c>
       <c r="BM7" t="s">
         <v>28</v>
@@ -3291,38 +3306,38 @@
         <v>28</v>
       </c>
       <c r="BO7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP7" t="s">
         <v>7</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>27</v>
       </c>
       <c r="BQ7" t="s">
         <v>27</v>
       </c>
       <c r="BR7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="BS7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BT7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV7" t="s">
         <v>7</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BW7" t="s">
         <v>137</v>
       </c>
-      <c r="BW7" t="s">
-        <v>6</v>
-      </c>
       <c r="BX7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY7" t="s">
         <v>7</v>
       </c>
-      <c r="BY7" t="s">
-        <v>6</v>
-      </c>
       <c r="BZ7" t="s">
         <v>6</v>
       </c>
@@ -3332,45 +3347,45 @@
       <c r="CB7" t="s">
         <v>6</v>
       </c>
-      <c r="CD7" t="s">
+      <c r="CC7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE7" t="s">
         <v>28</v>
       </c>
-      <c r="CE7" t="s">
-        <v>6</v>
-      </c>
       <c r="CF7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG7" t="s">
         <v>7</v>
       </c>
-      <c r="CG7" t="s">
+      <c r="CH7" t="s">
         <v>252</v>
       </c>
-      <c r="CH7" t="s">
-        <v>8</v>
-      </c>
       <c r="CI7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ7" t="s">
         <v>259</v>
       </c>
-      <c r="CJ7" t="s">
-        <v>6</v>
-      </c>
       <c r="CK7" t="s">
         <v>6</v>
       </c>
       <c r="CL7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM7" t="s">
         <v>7</v>
       </c>
-      <c r="CM7" t="s">
-        <v>6</v>
-      </c>
       <c r="CN7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO7" t="s">
         <v>27</v>
       </c>
-      <c r="CO7" s="50" t="s">
+      <c r="CP7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="CP7" t="s">
-        <v>6</v>
-      </c>
       <c r="CQ7" t="s">
         <v>6</v>
       </c>
@@ -3378,10 +3393,13 @@
         <v>6</v>
       </c>
       <c r="CS7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3503,7 @@
         <v>28</v>
       </c>
       <c r="AO8" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="s">
         <v>31</v>
@@ -3497,10 +3515,10 @@
         <v>31</v>
       </c>
       <c r="AS8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT8" t="s">
         <v>37</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>7</v>
       </c>
       <c r="AU8" t="s">
         <v>7</v>
@@ -3512,16 +3530,16 @@
         <v>7</v>
       </c>
       <c r="AX8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ8" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA8" s="48" t="s">
+        <v>8</v>
       </c>
       <c r="BB8" t="s">
         <v>7</v>
@@ -3530,61 +3548,61 @@
         <v>7</v>
       </c>
       <c r="BD8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE8" t="s">
         <v>28</v>
       </c>
-      <c r="BE8" t="s">
-        <v>9</v>
-      </c>
       <c r="BF8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="BG8" t="s">
         <v>24</v>
       </c>
       <c r="BH8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI8" t="s">
         <v>7</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>171</v>
       </c>
       <c r="BJ8" t="s">
         <v>171</v>
       </c>
       <c r="BK8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BL8" t="s">
         <v>33</v>
       </c>
-      <c r="BO8" t="s">
-        <v>6</v>
-      </c>
       <c r="BP8" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="BQ8" t="s">
         <v>28</v>
       </c>
       <c r="BR8" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS8" t="s">
         <v>7</v>
       </c>
-      <c r="BS8" t="s">
+      <c r="BT8" t="s">
         <v>206</v>
       </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>7</v>
       </c>
-      <c r="BU8" t="s">
-        <v>6</v>
-      </c>
       <c r="BV8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW8" t="s">
         <v>226</v>
       </c>
-      <c r="BW8" t="s">
+      <c r="BX8" t="s">
         <v>7</v>
       </c>
-      <c r="BX8" t="s">
-        <v>6</v>
-      </c>
       <c r="BY8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BZ8" t="s">
         <v>7</v>
@@ -3595,53 +3613,56 @@
       <c r="CB8" t="s">
         <v>7</v>
       </c>
-      <c r="CE8" t="s">
+      <c r="CC8" t="s">
         <v>7</v>
       </c>
       <c r="CF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG8" t="s">
         <v>245</v>
       </c>
-      <c r="CG8" t="s">
+      <c r="CH8" t="s">
         <v>253</v>
       </c>
-      <c r="CH8" t="s">
-        <v>9</v>
-      </c>
       <c r="CI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ8" t="s">
         <v>260</v>
       </c>
-      <c r="CJ8" t="s">
+      <c r="CK8" t="s">
         <v>264</v>
       </c>
-      <c r="CK8" t="s">
+      <c r="CL8" t="s">
         <v>7</v>
       </c>
-      <c r="CL8" t="s">
-        <v>6</v>
-      </c>
       <c r="CM8" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN8" t="s">
         <v>7</v>
       </c>
-      <c r="CN8" t="s">
-        <v>14</v>
-      </c>
-      <c r="CO8" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="CP8" t="s">
+      <c r="CO8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP8" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ8" t="s">
         <v>7</v>
       </c>
-      <c r="CQ8" t="s">
+      <c r="CR8" t="s">
         <v>273</v>
       </c>
-      <c r="CR8" t="s">
+      <c r="CS8" t="s">
         <v>7</v>
       </c>
-      <c r="CS8" t="s">
+      <c r="CT8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3733,7 +3754,7 @@
         <v>143</v>
       </c>
       <c r="AO9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="s">
         <v>134</v>
@@ -3745,7 +3766,7 @@
         <v>134</v>
       </c>
       <c r="AS9" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="AT9" t="s">
         <v>8</v>
@@ -3760,16 +3781,16 @@
         <v>8</v>
       </c>
       <c r="AX9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY9" t="s">
         <v>7</v>
       </c>
-      <c r="AY9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ9" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>8</v>
+      <c r="AZ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA9" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="BB9" t="s">
         <v>8</v>
@@ -3777,48 +3798,48 @@
       <c r="BC9" t="s">
         <v>8</v>
       </c>
-      <c r="BE9" t="s">
-        <v>14</v>
+      <c r="BD9" t="s">
+        <v>8</v>
       </c>
       <c r="BF9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BG9" t="s">
         <v>4</v>
       </c>
       <c r="BH9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI9" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="BJ9" t="s">
         <v>172</v>
       </c>
       <c r="BK9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP9" t="s">
         <v>8</v>
       </c>
       <c r="BS9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT9" t="s">
         <v>40</v>
       </c>
-      <c r="BT9" t="s">
-        <v>8</v>
-      </c>
       <c r="BU9" t="s">
         <v>8</v>
       </c>
       <c r="BV9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW9" t="s">
         <v>136</v>
       </c>
-      <c r="BW9" t="s">
-        <v>8</v>
-      </c>
       <c r="BX9" t="s">
         <v>8</v>
       </c>
@@ -3832,26 +3853,26 @@
         <v>8</v>
       </c>
       <c r="CB9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC9" t="s">
         <v>245</v>
       </c>
-      <c r="CE9" t="s">
-        <v>8</v>
-      </c>
       <c r="CF9" t="s">
         <v>8</v>
       </c>
       <c r="CG9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH9" t="s">
         <v>254</v>
       </c>
-      <c r="CH9" t="s">
-        <v>14</v>
-      </c>
       <c r="CI9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ9" t="s">
         <v>261</v>
       </c>
-      <c r="CJ9" t="s">
-        <v>8</v>
-      </c>
       <c r="CK9" t="s">
         <v>8</v>
       </c>
@@ -3861,20 +3882,23 @@
       <c r="CM9" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" t="s">
+      <c r="CN9" t="s">
         <v>8</v>
       </c>
       <c r="CQ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR9" t="s">
         <v>7</v>
       </c>
-      <c r="CR9" t="s">
-        <v>8</v>
-      </c>
       <c r="CS9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3960,7 +3984,7 @@
         <v>135</v>
       </c>
       <c r="AO10" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="s">
         <v>135</v>
@@ -3972,7 +3996,7 @@
         <v>135</v>
       </c>
       <c r="AS10" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="AT10" t="s">
         <v>9</v>
@@ -3987,59 +4011,59 @@
         <v>9</v>
       </c>
       <c r="AX10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ10" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA10" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="BA10" t="s">
-        <v>9</v>
-      </c>
       <c r="BB10" t="s">
         <v>9</v>
       </c>
       <c r="BC10" t="s">
         <v>9</v>
       </c>
-      <c r="BF10" t="s">
-        <v>8</v>
+      <c r="BD10" t="s">
+        <v>9</v>
       </c>
       <c r="BG10" t="s">
         <v>8</v>
       </c>
       <c r="BH10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI10" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="BJ10" t="s">
         <v>173</v>
       </c>
       <c r="BK10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BL10" t="s">
         <v>241</v>
       </c>
-      <c r="BO10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR10" t="s">
+      <c r="BP10" t="s">
         <v>9</v>
       </c>
       <c r="BS10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT10" t="s">
         <v>40</v>
       </c>
-      <c r="BT10" t="s">
-        <v>9</v>
-      </c>
       <c r="BU10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV10" t="s">
         <v>216</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BW10" t="s">
         <v>227</v>
       </c>
-      <c r="BW10" t="s">
-        <v>9</v>
-      </c>
       <c r="BX10" t="s">
         <v>9</v>
       </c>
@@ -4053,22 +4077,22 @@
         <v>9</v>
       </c>
       <c r="CB10" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>8</v>
       </c>
       <c r="CF10" t="s">
         <v>9</v>
       </c>
       <c r="CG10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH10" t="s">
         <v>255</v>
       </c>
-      <c r="CI10" t="s">
-        <v>8</v>
-      </c>
       <c r="CJ10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CK10" t="s">
         <v>9</v>
@@ -4079,20 +4103,23 @@
       <c r="CM10" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" t="s">
+      <c r="CN10" t="s">
         <v>9</v>
       </c>
       <c r="CQ10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CS10" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4175,7 +4202,7 @@
         <v>136</v>
       </c>
       <c r="AO11" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="s">
         <v>136</v>
@@ -4187,70 +4214,70 @@
         <v>136</v>
       </c>
       <c r="AS11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT11" t="s">
         <v>72</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>10</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>40</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>10</v>
       </c>
       <c r="AW11" t="s">
         <v>10</v>
       </c>
       <c r="AX11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB11" t="s">
         <v>188</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>10</v>
       </c>
       <c r="BC11" t="s">
         <v>10</v>
       </c>
-      <c r="BF11" t="s">
-        <v>9</v>
+      <c r="BD11" t="s">
+        <v>10</v>
       </c>
       <c r="BG11" t="s">
         <v>9</v>
       </c>
       <c r="BH11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI11" t="s">
         <v>10</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>174</v>
       </c>
       <c r="BJ11" t="s">
         <v>174</v>
       </c>
       <c r="BK11" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL11" t="s">
         <v>224</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>10</v>
       </c>
-      <c r="BR11" t="s">
+      <c r="BS11" t="s">
         <v>202</v>
       </c>
-      <c r="BS11" t="s">
+      <c r="BT11" t="s">
         <v>206</v>
       </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>10</v>
       </c>
-      <c r="BU11" t="s">
+      <c r="BV11" t="s">
         <v>217</v>
       </c>
-      <c r="BV11" t="s">
+      <c r="BW11" t="s">
         <v>228</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>10</v>
       </c>
       <c r="BX11" t="s">
         <v>10</v>
@@ -4265,43 +4292,46 @@
         <v>10</v>
       </c>
       <c r="CB11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC11" t="s">
         <v>40</v>
       </c>
-      <c r="CE11" t="s">
+      <c r="CF11" t="s">
         <v>188</v>
       </c>
-      <c r="CF11" t="s">
+      <c r="CG11" t="s">
         <v>10</v>
       </c>
-      <c r="CG11" t="s">
+      <c r="CH11" t="s">
         <v>40</v>
       </c>
-      <c r="CI11" t="s">
-        <v>9</v>
-      </c>
       <c r="CJ11" t="s">
-        <v>10</v>
-      </c>
-      <c r="CL11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK11" t="s">
         <v>10</v>
       </c>
       <c r="CM11" t="s">
         <v>10</v>
       </c>
-      <c r="CP11" t="s">
+      <c r="CN11" t="s">
         <v>10</v>
       </c>
       <c r="CQ11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CR11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS11" t="s">
         <v>74</v>
       </c>
-      <c r="CS11" t="s">
+      <c r="CT11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4372,7 +4402,7 @@
         <v>137</v>
       </c>
       <c r="AO12" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="s">
         <v>137</v>
@@ -4383,68 +4413,68 @@
       <c r="AR12" t="s">
         <v>137</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AS12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU12" t="s">
         <v>11</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>10</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>11</v>
       </c>
       <c r="AW12" t="s">
         <v>11</v>
       </c>
       <c r="AX12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB12" t="s">
         <v>10</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>11</v>
       </c>
       <c r="BC12" t="s">
         <v>11</v>
       </c>
-      <c r="BF12" t="s">
-        <v>72</v>
+      <c r="BD12" t="s">
+        <v>11</v>
       </c>
       <c r="BG12" t="s">
         <v>72</v>
       </c>
       <c r="BH12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI12" t="s">
         <v>11</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>175</v>
       </c>
       <c r="BJ12" t="s">
         <v>175</v>
       </c>
       <c r="BK12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL12" t="s">
         <v>242</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>11</v>
       </c>
-      <c r="BR12" t="s">
-        <v>14</v>
-      </c>
       <c r="BS12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BT12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU12" t="s">
         <v>11</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
         <v>218</v>
       </c>
-      <c r="BV12" t="s">
+      <c r="BW12" t="s">
         <v>154</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>11</v>
       </c>
       <c r="BX12" t="s">
         <v>11</v>
@@ -4459,43 +4489,46 @@
         <v>11</v>
       </c>
       <c r="CB12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE12" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF12" t="s">
         <v>10</v>
       </c>
-      <c r="CF12" t="s">
+      <c r="CG12" t="s">
         <v>11</v>
       </c>
-      <c r="CG12" t="s">
+      <c r="CH12" t="s">
         <v>256</v>
       </c>
-      <c r="CI12" t="s">
+      <c r="CJ12" t="s">
         <v>262</v>
       </c>
-      <c r="CJ12" t="s">
-        <v>11</v>
-      </c>
-      <c r="CL12" t="s">
+      <c r="CK12" t="s">
         <v>11</v>
       </c>
       <c r="CM12" t="s">
         <v>11</v>
       </c>
-      <c r="CP12" t="s">
+      <c r="CN12" t="s">
         <v>11</v>
       </c>
       <c r="CQ12" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR12" t="s">
         <v>10</v>
       </c>
-      <c r="CR12" t="s">
-        <v>14</v>
-      </c>
       <c r="CS12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4562,9 +4595,6 @@
       <c r="AM13" t="s">
         <v>8</v>
       </c>
-      <c r="AO13" t="s">
-        <v>8</v>
-      </c>
       <c r="AP13" t="s">
         <v>8</v>
       </c>
@@ -4574,56 +4604,56 @@
       <c r="AR13" t="s">
         <v>8</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AS13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU13" t="s">
         <v>12</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>11</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>12</v>
       </c>
       <c r="AW13" t="s">
         <v>12</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="AX13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB13" t="s">
         <v>11</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>12</v>
       </c>
       <c r="BC13" t="s">
         <v>12</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BD13" t="s">
         <v>12</v>
       </c>
       <c r="BI13" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="BJ13" t="s">
         <v>176</v>
       </c>
       <c r="BK13" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL13" t="s">
         <v>217</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>12</v>
       </c>
-      <c r="BS13" t="s">
-        <v>9</v>
-      </c>
       <c r="BT13" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU13" t="s">
         <v>12</v>
       </c>
-      <c r="BU13" t="s">
+      <c r="BV13" t="s">
         <v>219</v>
       </c>
-      <c r="BV13" t="s">
+      <c r="BW13" t="s">
         <v>229</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>12</v>
       </c>
       <c r="BX13" t="s">
         <v>12</v>
@@ -4638,37 +4668,40 @@
         <v>12</v>
       </c>
       <c r="CB13" t="s">
+        <v>12</v>
+      </c>
+      <c r="CC13" t="s">
         <v>207</v>
       </c>
-      <c r="CE13" t="s">
+      <c r="CF13" t="s">
         <v>11</v>
       </c>
-      <c r="CF13" t="s">
+      <c r="CG13" t="s">
         <v>12</v>
       </c>
-      <c r="CI13" t="s">
+      <c r="CJ13" t="s">
         <v>33</v>
       </c>
-      <c r="CJ13" t="s">
-        <v>12</v>
-      </c>
-      <c r="CL13" t="s">
+      <c r="CK13" t="s">
         <v>12</v>
       </c>
       <c r="CM13" t="s">
         <v>12</v>
       </c>
-      <c r="CP13" t="s">
+      <c r="CN13" t="s">
         <v>12</v>
       </c>
       <c r="CQ13" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR13" t="s">
         <v>11</v>
       </c>
-      <c r="CS13" t="s">
+      <c r="CT13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4735,9 +4768,6 @@
       <c r="AM14" t="s">
         <v>138</v>
       </c>
-      <c r="AO14" t="s">
-        <v>138</v>
-      </c>
       <c r="AP14" t="s">
         <v>138</v>
       </c>
@@ -4747,53 +4777,53 @@
       <c r="AR14" t="s">
         <v>138</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AS14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU14" t="s">
         <v>13</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>12</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>13</v>
       </c>
       <c r="AW14" t="s">
         <v>13</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="AX14" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB14" t="s">
         <v>12</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>13</v>
       </c>
       <c r="BC14" t="s">
         <v>13</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BD14" t="s">
         <v>13</v>
       </c>
       <c r="BI14" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="BJ14" t="s">
         <v>177</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BK14" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP14" t="s">
         <v>13</v>
       </c>
-      <c r="BS14" t="s">
+      <c r="BT14" t="s">
         <v>206</v>
       </c>
-      <c r="BT14" t="s">
+      <c r="BU14" t="s">
         <v>13</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="BV14" t="s">
         <v>220</v>
       </c>
-      <c r="BV14" t="s">
+      <c r="BW14" t="s">
         <v>230</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>13</v>
       </c>
       <c r="BX14" t="s">
         <v>13</v>
@@ -4808,37 +4838,40 @@
         <v>13</v>
       </c>
       <c r="CB14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC14" t="s">
         <v>208</v>
       </c>
-      <c r="CE14" t="s">
+      <c r="CF14" t="s">
         <v>12</v>
       </c>
-      <c r="CF14" t="s">
+      <c r="CG14" t="s">
         <v>13</v>
       </c>
-      <c r="CI14" t="s">
+      <c r="CJ14" t="s">
         <v>210</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL14" t="s">
+      <c r="CK14" t="s">
         <v>13</v>
       </c>
       <c r="CM14" t="s">
         <v>13</v>
       </c>
-      <c r="CP14" t="s">
+      <c r="CN14" t="s">
         <v>13</v>
       </c>
       <c r="CQ14" t="s">
+        <v>13</v>
+      </c>
+      <c r="CR14" t="s">
         <v>12</v>
       </c>
-      <c r="CS14" t="s">
+      <c r="CT14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4905,9 +4938,6 @@
       <c r="AM15" t="s">
         <v>139</v>
       </c>
-      <c r="AO15" t="s">
-        <v>139</v>
-      </c>
       <c r="AP15" t="s">
         <v>139</v>
       </c>
@@ -4917,52 +4947,52 @@
       <c r="AR15" t="s">
         <v>139</v>
       </c>
-      <c r="AT15" t="s">
-        <v>14</v>
+      <c r="AS15" t="s">
+        <v>139</v>
       </c>
       <c r="AU15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV15" t="s">
         <v>13</v>
       </c>
-      <c r="AV15" t="s">
-        <v>14</v>
-      </c>
       <c r="AW15" t="s">
         <v>14</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="AX15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB15" t="s">
         <v>13</v>
       </c>
-      <c r="BB15" t="s">
-        <v>14</v>
-      </c>
       <c r="BC15" t="s">
         <v>14</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BD15" t="s">
         <v>14</v>
       </c>
       <c r="BI15" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="BJ15" t="s">
         <v>178</v>
       </c>
-      <c r="BS15" t="s">
+      <c r="BK15" t="s">
+        <v>178</v>
+      </c>
+      <c r="BT15" t="s">
         <v>207</v>
       </c>
-      <c r="BT15" t="s">
-        <v>14</v>
-      </c>
       <c r="BU15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BV15" t="s">
         <v>221</v>
       </c>
-      <c r="BV15" t="s">
-        <v>9</v>
-      </c>
       <c r="BW15" t="s">
-        <v>14</v>
-      </c>
-      <c r="BY15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX15" t="s">
         <v>14</v>
       </c>
       <c r="BZ15" t="s">
@@ -4972,31 +5002,34 @@
         <v>14</v>
       </c>
       <c r="CB15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC15" t="s">
         <v>246</v>
       </c>
-      <c r="CE15" t="s">
+      <c r="CF15" t="s">
         <v>13</v>
       </c>
-      <c r="CF15" t="s">
+      <c r="CG15" t="s">
         <v>74</v>
       </c>
-      <c r="CJ15" t="s">
-        <v>14</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>14</v>
-      </c>
-      <c r="CP15" t="s">
+      <c r="CK15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN15" t="s">
         <v>14</v>
       </c>
       <c r="CQ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR15" t="s">
         <v>13</v>
       </c>
-      <c r="CS15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CT15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="P16" t="s">
         <v>14</v>
       </c>
@@ -5018,9 +5051,6 @@
       <c r="AM16" t="s">
         <v>140</v>
       </c>
-      <c r="AO16" t="s">
-        <v>140</v>
-      </c>
       <c r="AP16" t="s">
         <v>140</v>
       </c>
@@ -5030,41 +5060,44 @@
       <c r="AR16" t="s">
         <v>140</v>
       </c>
-      <c r="AU16" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>179</v>
+      <c r="AS16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>14</v>
       </c>
       <c r="BJ16" t="s">
         <v>179</v>
       </c>
-      <c r="BS16" t="s">
+      <c r="BK16" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT16" t="s">
         <v>207</v>
       </c>
-      <c r="BU16" t="s">
+      <c r="BV16" t="s">
         <v>222</v>
       </c>
-      <c r="BV16" t="s">
+      <c r="BW16" t="s">
         <v>40</v>
       </c>
-      <c r="CB16" t="s">
+      <c r="CC16" t="s">
         <v>33</v>
       </c>
-      <c r="CE16" t="s">
-        <v>14</v>
-      </c>
       <c r="CF16" t="s">
         <v>14</v>
       </c>
-      <c r="CQ16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="CG16" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
       <c r="Y17" t="s">
         <v>14</v>
       </c>
@@ -5077,9 +5110,6 @@
       <c r="AM17" t="s">
         <v>11</v>
       </c>
-      <c r="AO17" t="s">
-        <v>11</v>
-      </c>
       <c r="AP17" t="s">
         <v>11</v>
       </c>
@@ -5089,26 +5119,29 @@
       <c r="AR17" t="s">
         <v>11</v>
       </c>
-      <c r="BI17" t="s">
-        <v>180</v>
+      <c r="AS17" t="s">
+        <v>11</v>
       </c>
       <c r="BJ17" t="s">
         <v>180</v>
       </c>
-      <c r="BS17" t="s">
+      <c r="BK17" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT17" t="s">
         <v>208</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>223</v>
       </c>
-      <c r="BV17" t="s">
+      <c r="BW17" t="s">
         <v>33</v>
       </c>
-      <c r="CB17" t="s">
+      <c r="CC17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -5121,9 +5154,6 @@
       <c r="AM18" t="s">
         <v>141</v>
       </c>
-      <c r="AO18" t="s">
-        <v>141</v>
-      </c>
       <c r="AP18" t="s">
         <v>141</v>
       </c>
@@ -5133,23 +5163,26 @@
       <c r="AR18" t="s">
         <v>141</v>
       </c>
-      <c r="BI18" t="s">
-        <v>181</v>
+      <c r="AS18" t="s">
+        <v>141</v>
       </c>
       <c r="BJ18" t="s">
         <v>181</v>
       </c>
-      <c r="BS18" t="s">
+      <c r="BK18" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT18" t="s">
         <v>208</v>
       </c>
-      <c r="BU18" t="s">
+      <c r="BV18" t="s">
         <v>224</v>
       </c>
-      <c r="BV18" t="s">
+      <c r="BW18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -5162,9 +5195,6 @@
       <c r="AM19" t="s">
         <v>13</v>
       </c>
-      <c r="AO19" t="s">
-        <v>13</v>
-      </c>
       <c r="AP19" t="s">
         <v>13</v>
       </c>
@@ -5174,14 +5204,17 @@
       <c r="AR19" t="s">
         <v>13</v>
       </c>
-      <c r="BS19" t="s">
+      <c r="AS19" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT19" t="s">
         <v>206</v>
       </c>
-      <c r="BV19" t="s">
+      <c r="BW19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -5194,9 +5227,6 @@
       <c r="AM20" t="s">
         <v>33</v>
       </c>
-      <c r="AO20" t="s">
-        <v>33</v>
-      </c>
       <c r="AP20" t="s">
         <v>33</v>
       </c>
@@ -5206,14 +5236,17 @@
       <c r="AR20" t="s">
         <v>33</v>
       </c>
-      <c r="BS20" t="s">
+      <c r="AS20" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT20" t="s">
         <v>209</v>
       </c>
-      <c r="BV20" t="s">
+      <c r="BW20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -5226,9 +5259,6 @@
       <c r="AM21" t="s">
         <v>14</v>
       </c>
-      <c r="AO21" t="s">
-        <v>14</v>
-      </c>
       <c r="AP21" t="s">
         <v>14</v>
       </c>
@@ -5238,54 +5268,57 @@
       <c r="AR21" t="s">
         <v>14</v>
       </c>
-      <c r="BS21" t="s">
+      <c r="AS21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BS22" t="s">
+      <c r="BT22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BS23" t="s">
+      <c r="BT23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="BS24" t="s">
+      <c r="BT24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="BS25" t="s">
+      <c r="BT25" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>145</v>
       </c>
@@ -5293,12 +5326,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>157</v>
       </c>
@@ -5306,7 +5339,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>182</v>
       </c>
